--- a/downloaded_files/CMPS202_Tutorial-35767.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35767.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -163,6 +163,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman tarek mohamed rabie abdelsalam elsiad abouelnour</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240091</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على احمد محمد محمود محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Ahmed Mohamed Mahmoud Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220264</x:t>
@@ -440,7 +449,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +749,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1309,7 +1318,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45921.414240625</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1341,7 +1350,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4453193287</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1373,7 +1382,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.4453193287</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1405,7 +1414,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4226036227</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1437,7 +1446,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.3062593403</x:v>
+        <x:v>45907.4226036227</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1469,7 +1478,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.306596412</x:v>
+        <x:v>45912.3062593403</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1501,7 +1510,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.3070352662</x:v>
+        <x:v>45912.306596412</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1533,7 +1542,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45912.3070352662</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1565,7 +1574,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1597,7 +1606,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.3061332176</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1629,7 +1638,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45912.3061332176</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1661,7 +1670,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.3054903588</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6665090625</x:v>
+        <x:v>45912.3054903588</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6646564468</x:v>
+        <x:v>45907.6665090625</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.3067289005</x:v>
+        <x:v>45907.6646564468</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45912.3067289005</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.6634341782</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45912.6634341782</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1871,6 +1880,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.665069213</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1883,6 +1924,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Introduction to Database Management Systems (CMPS202) Location : [3706]3706-45-الجيزة الرئيسي Time : Monday(16:19)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS202_Tutorial-35767.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35767.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -181,6 +181,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Tarek Refaat Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد مصطفى محمد الفحام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Mostafa Mohamed El Faham</x:t>
   </x:si>
   <x:si>
     <x:t>4240039</x:t>
@@ -449,7 +458,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -749,7 +758,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1382,7 +1391,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4453193287</x:v>
+        <x:v>45925.4673183681</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1414,7 +1423,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.4453193287</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1446,7 +1455,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4226036227</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1478,7 +1487,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.3062593403</x:v>
+        <x:v>45907.4226036227</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1510,7 +1519,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.306596412</x:v>
+        <x:v>45912.3062593403</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1542,7 +1551,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.3070352662</x:v>
+        <x:v>45912.306596412</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1574,7 +1583,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45912.3070352662</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1606,7 +1615,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1638,7 +1647,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.3061332176</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1670,7 +1679,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45912.3061332176</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1702,7 +1711,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.3054903588</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1734,7 +1743,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6665090625</x:v>
+        <x:v>45912.3054903588</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1766,7 +1775,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6646564468</x:v>
+        <x:v>45907.6665090625</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1798,7 +1807,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.3067289005</x:v>
+        <x:v>45907.6646564468</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1830,7 +1839,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45912.3067289005</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1862,7 +1871,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.6634341782</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1894,7 +1903,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45912.6634341782</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1911,6 +1920,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.665069213</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Tutorial-35767.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35767.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -165,15 +165,6 @@
     <x:t>Abdelrahman tarek mohamed rabie abdelsalam elsiad abouelnour</x:t>
   </x:si>
   <x:si>
-    <x:t>1240091</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على احمد محمد محمود محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Ahmed Mohamed Mahmoud Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220264</x:t>
   </x:si>
   <x:si>
@@ -219,15 +210,6 @@
     <x:t>Mazen Ahmed Fouad Abdelwahab</x:t>
   </x:si>
   <x:si>
-    <x:t>1240255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مايا معتصم احمد سمير ابوشادي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maya Moatasem Ahmed Samir Aboshadi</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240135</x:t>
   </x:si>
   <x:si>
@@ -280,15 +262,6 @@
   </x:si>
   <x:si>
     <x:t>Mariam Ayman Omran Abdallah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230257</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم رامى محمد سعيد زكى رضوان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIM</x:t>
   </x:si>
   <x:si>
     <x:t>1240371</x:t>
@@ -458,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -758,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1327,7 +1300,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.414240625</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1359,7 +1332,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45925.4673183681</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1391,7 +1364,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45925.4673183681</x:v>
+        <x:v>45907.4453193287</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1423,7 +1396,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4453193287</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1455,7 +1428,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.4226036227</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1487,7 +1460,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4226036227</x:v>
+        <x:v>45912.306596412</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1519,7 +1492,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.3062593403</x:v>
+        <x:v>45912.3070352662</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1551,7 +1524,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.306596412</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1583,7 +1556,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.3070352662</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1615,7 +1588,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45912.3061332176</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1647,7 +1620,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1679,7 +1652,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.3061332176</x:v>
+        <x:v>45907.6665090625</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1711,7 +1684,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.6646564468</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1743,7 +1716,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.3054903588</x:v>
+        <x:v>45912.3067289005</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1775,7 +1748,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6665090625</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1807,7 +1780,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6646564468</x:v>
+        <x:v>45912.6634341782</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1839,7 +1812,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.3067289005</x:v>
+        <x:v>45907.665069213</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1857,102 +1830,6 @@
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
     </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45907.4194505787</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45912.6634341782</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.665069213</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1965,9 +1842,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Introduction to Database Management Systems (CMPS202) Location : [3706]3706-45-الجيزة الرئيسي Time : Monday(16:19)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS202_Tutorial-35767.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35767.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -127,6 +127,15 @@
   </x:si>
   <x:si>
     <x:t>زياد محمود حشمت سيف النصر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى عمرو جلال الدين احمد وصال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Amr Galaleldin Ahmed Wassal</x:t>
   </x:si>
   <x:si>
     <x:t>1240327</x:t>
@@ -431,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1172,7 +1181,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45928.3668628125</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1204,7 +1213,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.306665081</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1236,7 +1245,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.3070922454</x:v>
+        <x:v>45912.306665081</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1268,7 +1277,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6650891204</x:v>
+        <x:v>45912.3070922454</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1300,7 +1309,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45907.6650891204</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1332,7 +1341,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45925.4673183681</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1364,7 +1373,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4453193287</x:v>
+        <x:v>45925.4673183681</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1396,7 +1405,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.4453193287</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1428,7 +1437,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4226036227</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1460,7 +1469,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.306596412</x:v>
+        <x:v>45907.4226036227</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1492,7 +1501,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.3070352662</x:v>
+        <x:v>45912.306596412</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1524,7 +1533,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45912.3070352662</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1556,7 +1565,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1588,7 +1597,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.3061332176</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1620,7 +1629,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45912.3061332176</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1652,7 +1661,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6665090625</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1684,7 +1693,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6646564468</x:v>
+        <x:v>45907.6665090625</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.3067289005</x:v>
+        <x:v>45907.6646564468</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45912.3067289005</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.6634341782</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45912.6634341782</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1829,6 +1838,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.665069213</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS202_Tutorial-35767.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35767.xlsx
@@ -174,15 +174,6 @@
     <x:t>Abdelrahman tarek mohamed rabie abdelsalam elsiad abouelnour</x:t>
   </x:si>
   <x:si>
-    <x:t>1220264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر طارق رفعت محمد عبداللاه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Tarek Refaat Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240114</x:t>
   </x:si>
   <x:si>
@@ -280,6 +271,15 @@
   </x:si>
   <x:si>
     <x:t>Mariam Walid Mostafa Mohamed Eid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ملك هاني يسري عزو</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MALAK</x:t>
   </x:si>
   <x:si>
     <x:t>1230268</x:t>
@@ -1341,7 +1341,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45925.4673183681</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1373,7 +1373,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45925.4673183681</x:v>
+        <x:v>45907.4453193287</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1405,7 +1405,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4453193287</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1437,7 +1437,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.4226036227</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1469,7 +1469,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4226036227</x:v>
+        <x:v>45912.306596412</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1501,7 +1501,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.306596412</x:v>
+        <x:v>45912.3070352662</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1533,7 +1533,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.3070352662</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1565,7 +1565,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1597,7 +1597,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45912.3061332176</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1629,7 +1629,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.3061332176</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1661,7 +1661,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45907.6665090625</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1693,7 +1693,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6665090625</x:v>
+        <x:v>45929.5419351042</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>

--- a/downloaded_files/CMPS202_Tutorial-35767.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35767.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Ans Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بسمه يحيي العدوي علي شوشه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Basma yahia eladwey</x:t>
   </x:si>
   <x:si>
     <x:t>1240295</x:t>
@@ -440,7 +449,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +749,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -927,7 +936,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6647150463</x:v>
+        <x:v>45932.5264027431</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -959,7 +968,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.4156690625</x:v>
+        <x:v>45907.6647150463</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -991,7 +1000,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.3064025463</x:v>
+        <x:v>45909.4156690625</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1023,7 +1032,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6651212616</x:v>
+        <x:v>45912.3064025463</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1055,7 +1064,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.3068809028</x:v>
+        <x:v>45907.6651212616</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1087,7 +1096,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.3074484954</x:v>
+        <x:v>45912.3068809028</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1119,7 +1128,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45917.0120167824</x:v>
+        <x:v>45912.3074484954</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1147,9 +1156,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45917.0120167824</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1172,16 +1183,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45928.3668628125</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1213,7 +1222,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45928.3668628125</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1245,7 +1254,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.306665081</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1277,7 +1286,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.3070922454</x:v>
+        <x:v>45912.306665081</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1309,7 +1318,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6650891204</x:v>
+        <x:v>45912.3070922454</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1341,7 +1350,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45925.4673183681</x:v>
+        <x:v>45907.6650891204</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1373,7 +1382,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4453193287</x:v>
+        <x:v>45925.4673183681</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1405,7 +1414,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.4453193287</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1437,7 +1446,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4226036227</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1469,7 +1478,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.306596412</x:v>
+        <x:v>45907.4226036227</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1501,7 +1510,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.3070352662</x:v>
+        <x:v>45912.306596412</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1533,7 +1542,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45912.3070352662</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1565,7 +1574,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1597,7 +1606,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.3061332176</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1629,7 +1638,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6649017708</x:v>
+        <x:v>45912.3061332176</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1661,7 +1670,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6665090625</x:v>
+        <x:v>45907.6649017708</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45929.5419351042</x:v>
+        <x:v>45907.6665090625</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6646564468</x:v>
+        <x:v>45929.5419351042</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.3067289005</x:v>
+        <x:v>45907.6646564468</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45912.3067289005</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.6634341782</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.665069213</x:v>
+        <x:v>45912.6634341782</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1871,6 +1880,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.665069213</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1883,6 +1924,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Introduction to Database Management Systems (CMPS202) Location : [3706]3706-45-الجيزة الرئيسي Time : Monday(16:19)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS202_Tutorial-35767.xlsx
+++ b/downloaded_files/CMPS202_Tutorial-35767.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -135,7 +135,10 @@
     <x:t>1240195</x:t>
   </x:si>
   <x:si>
-    <x:t>زياد محمود حشمت سيف النصر</x:t>
+    <x:t>زياد محمود حشمت سيف النصر عبد الرحيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeyad Mahmoud Hishmat Seifelnasr Abdelraheem</x:t>
   </x:si>
   <x:si>
     <x:t>1240320</x:t>
@@ -1188,7 +1191,9 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="E13" s="3">
         <x:v>45907.6646548264</x:v>
       </x:c>
@@ -1213,13 +1218,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>45928.3668628125</x:v>
@@ -1245,13 +1250,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
         <x:v>45907.6651743056</x:v>
@@ -1277,13 +1282,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
         <x:v>45912.306665081</x:v>
@@ -1309,13 +1314,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
         <x:v>45912.3070922454</x:v>
@@ -1341,13 +1346,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45907.6650891204</x:v>
@@ -1373,13 +1378,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
         <x:v>45925.4673183681</x:v>
@@ -1405,13 +1410,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45907.4453193287</x:v>
@@ -1437,13 +1442,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45907.6651607639</x:v>
@@ -1469,13 +1474,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45907.4226036227</x:v>
@@ -1501,13 +1506,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45912.306596412</x:v>
@@ -1533,13 +1538,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45912.3070352662</x:v>
@@ -1565,13 +1570,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45907.6646984606</x:v>
@@ -1597,13 +1602,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45907.6651833681</x:v>
@@ -1629,13 +1634,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45912.3061332176</x:v>
@@ -1661,13 +1666,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45907.6649017708</x:v>
@@ -1693,13 +1698,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45907.6665090625</x:v>
@@ -1725,13 +1730,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
         <x:v>45929.5419351042</x:v>
@@ -1757,13 +1762,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
         <x:v>45907.6646564468</x:v>
@@ -1789,13 +1794,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45912.3067289005</x:v>
@@ -1821,13 +1826,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45907.4194505787</x:v>
@@ -1853,13 +1858,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45912.6634341782</x:v>
@@ -1885,13 +1890,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45907.665069213</x:v>
